--- a/MultiplayerCloudGaming/Data/ParetoMatchingProblem/simulation.xlsx
+++ b/MultiplayerCloudGaming/Data/ParetoMatchingProblem/simulation.xlsx
@@ -1,21 +1,218 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="0" sheetId="3" r:id="rId1"/>
+    <sheet name="1" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <definedNames>
+    <definedName name="_0.500.100.10.4.serverCost" localSheetId="0">'0'!$E$1:$G$36</definedName>
+    <definedName name="_0.500.100.10.4.sessionCount" localSheetId="0">'0'!$A$1:$C$36</definedName>
+    <definedName name="_1.500.100.10.4.sessionCount" localSheetId="1">'1'!$A$1:$C$36</definedName>
+    <definedName name="_1.500.100.10.4.sessionCount_1" localSheetId="1">'1'!$E$1:$G$36</definedName>
+  </definedNames>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="0.500.100.10.4.serverCost" type="6" refreshedVersion="0" background="1">
+    <textPr codePage="936" sourceFile="C:\Users\yhdeng\Dropbox\Coding\C++\MultiplayerCloudGaming\MultiplayerCloudGaming\Data\ParetoMatchingProblem\0.500.100.10.4.serverCost.csv" comma="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" name="0.500.100.10.4.serverCost1" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="936" sourceFile="C:\Users\yhdeng\Dropbox\Coding\C++\MultiplayerCloudGaming\MultiplayerCloudGaming\Data\ParetoMatchingProblem\0.500.100.10.4.serverCost.csv" comma="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="3" name="0.500.100.10.4.sessionCount" type="6" refreshedVersion="0" background="1">
+    <textPr codePage="936" sourceFile="C:\Users\yhdeng\Dropbox\Coding\C++\MultiplayerCloudGaming\MultiplayerCloudGaming\Data\ParetoMatchingProblem\0.500.100.10.4.sessionCount.csv" comma="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="4" name="0.500.100.10.4.sessionCount1" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="936" sourceFile="C:\Users\yhdeng\Dropbox\Coding\C++\MultiplayerCloudGaming\MultiplayerCloudGaming\Data\ParetoMatchingProblem\0.500.100.10.4.sessionCount.csv" comma="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="5" name="1.500.100.10.4.serverCost" type="6" refreshedVersion="0" background="1">
+    <textPr codePage="936" sourceFile="C:\Users\yhdeng\Dropbox\Coding\C++\MultiplayerCloudGaming\MultiplayerCloudGaming\Data\ParetoMatchingProblem\1.500.100.10.4.serverCost.csv" comma="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="6" name="1.500.100.10.4.sessionCount" type="6" refreshedVersion="0" background="1">
+    <textPr codePage="936" sourceFile="C:\Users\yhdeng\Dropbox\Coding\C++\MultiplayerCloudGaming\MultiplayerCloudGaming\Data\ParetoMatchingProblem\1.500.100.10.4.sessionCount.csv" comma="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="7" name="1.500.100.10.4.sessionCount1" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="936" sourceFile="C:\Users\yhdeng\Dropbox\Coding\C++\MultiplayerCloudGaming\MultiplayerCloudGaming\Data\ParetoMatchingProblem\1.500.100.10.4.sessionCount.csv" comma="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="8" name="1.500.100.10.4.sessionCount2" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="936" sourceFile="C:\Users\yhdeng\Dropbox\Coding\C++\MultiplayerCloudGaming\MultiplayerCloudGaming\Data\ParetoMatchingProblem\1.500.100.10.4.sessionCount.csv" comma="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="36">
+  <si>
+    <t>G_Assignment_Layered.R_Assignment_LCW.Grouping_Greedy</t>
+  </si>
+  <si>
+    <t>G_Assignment_Layered.R_Assignment_LCW.Grouping_Random</t>
+  </si>
+  <si>
+    <t>G_Assignment_Layered.R_Assignment_LSP.Grouping_Greedy</t>
+  </si>
+  <si>
+    <t>G_Assignment_Layered.R_Assignment_LSP.Grouping_Random</t>
+  </si>
+  <si>
+    <t>G_Assignment_Layered.R_Assignment_Random.Grouping_Greedy</t>
+  </si>
+  <si>
+    <t>G_Assignment_Layered.R_Assignment_Random.Grouping_Random</t>
+  </si>
+  <si>
+    <t>G_Assignment_Random.R_Assignment_LCW.Grouping_Greedy</t>
+  </si>
+  <si>
+    <t>G_Assignment_Random.R_Assignment_LCW.Grouping_Random</t>
+  </si>
+  <si>
+    <t>G_Assignment_Random.R_Assignment_LSP.Grouping_Greedy</t>
+  </si>
+  <si>
+    <t>G_Assignment_Random.R_Assignment_LSP.Grouping_Random</t>
+  </si>
+  <si>
+    <t>G_Assignment_Random.R_Assignment_Random.Grouping_Greedy</t>
+  </si>
+  <si>
+    <t>G_Assignment_Random.R_Assignment_Random.Grouping_Random</t>
+  </si>
+  <si>
+    <t>G_Assignment_Simple.R_Assignment_LCW.Grouping_Greedy</t>
+  </si>
+  <si>
+    <t>G_Assignment_Simple.R_Assignment_LCW.Grouping_Random</t>
+  </si>
+  <si>
+    <t>G_Assignment_Simple.R_Assignment_LSP.Grouping_Greedy</t>
+  </si>
+  <si>
+    <t>G_Assignment_Simple.R_Assignment_LSP.Grouping_Random</t>
+  </si>
+  <si>
+    <t>G_Assignment_Simple.R_Assignment_Random.Grouping_Greedy</t>
+  </si>
+  <si>
+    <t>G_Assignment_Simple.R_Assignment_Random.Grouping_Random</t>
+  </si>
+  <si>
+    <t>R_Assignment_LCW.G_Assignment_Layered.Grouping_Greedy</t>
+  </si>
+  <si>
+    <t>R_Assignment_LCW.G_Assignment_Layered.Grouping_Random</t>
+  </si>
+  <si>
+    <t>R_Assignment_LCW.G_Assignment_Random.Grouping_Greedy</t>
+  </si>
+  <si>
+    <t>R_Assignment_LCW.G_Assignment_Random.Grouping_Random</t>
+  </si>
+  <si>
+    <t>R_Assignment_LCW.G_Assignment_Simple.Grouping_Greedy</t>
+  </si>
+  <si>
+    <t>R_Assignment_LCW.G_Assignment_Simple.Grouping_Random</t>
+  </si>
+  <si>
+    <t>R_Assignment_LSP.G_Assignment_Layered.Grouping_Greedy</t>
+  </si>
+  <si>
+    <t>R_Assignment_LSP.G_Assignment_Layered.Grouping_Random</t>
+  </si>
+  <si>
+    <t>R_Assignment_LSP.G_Assignment_Random.Grouping_Greedy</t>
+  </si>
+  <si>
+    <t>R_Assignment_LSP.G_Assignment_Random.Grouping_Random</t>
+  </si>
+  <si>
+    <t>R_Assignment_LSP.G_Assignment_Simple.Grouping_Greedy</t>
+  </si>
+  <si>
+    <t>R_Assignment_LSP.G_Assignment_Simple.Grouping_Random</t>
+  </si>
+  <si>
+    <t>R_Assignment_Random.G_Assignment_Layered.Grouping_Greedy</t>
+  </si>
+  <si>
+    <t>R_Assignment_Random.G_Assignment_Layered.Grouping_Random</t>
+  </si>
+  <si>
+    <t>R_Assignment_Random.G_Assignment_Random.Grouping_Greedy</t>
+  </si>
+  <si>
+    <t>R_Assignment_Random.G_Assignment_Random.Grouping_Random</t>
+  </si>
+  <si>
+    <t>R_Assignment_Random.G_Assignment_Simple.Grouping_Greedy</t>
+  </si>
+  <si>
+    <t>R_Assignment_Random.G_Assignment_Simple.Grouping_Random</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,7 +249,31 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="0.500.100.10.4.serverCost" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="0.500.100.10.4.sessionCount" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1.500.100.10.4.sessionCount_1" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1.500.100.10.4.sessionCount" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -98,7 +319,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +354,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +562,1487 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="62.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>44.99</v>
+      </c>
+      <c r="C1">
+        <v>9.9498699999999995E-2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>2.46577</v>
+      </c>
+      <c r="G1">
+        <v>2.3516599999999999E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>47.01</v>
+      </c>
+      <c r="C2">
+        <v>9.9498699999999995E-2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>2.88185</v>
+      </c>
+      <c r="G2">
+        <v>1.05127E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>46</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>2.2389299999999999</v>
+      </c>
+      <c r="G3">
+        <v>1.1526399999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>47.01</v>
+      </c>
+      <c r="C4">
+        <v>9.9498699999999995E-2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>2.6953</v>
+      </c>
+      <c r="G4">
+        <v>6.2254500000000004E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>44.99</v>
+      </c>
+      <c r="C5">
+        <v>9.9498699999999995E-2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>2.5251100000000002</v>
+      </c>
+      <c r="G5">
+        <v>1.45506E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>47.01</v>
+      </c>
+      <c r="C6">
+        <v>9.9498699999999995E-2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>3.6081099999999999</v>
+      </c>
+      <c r="G6">
+        <v>1.8407199999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>44</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>2.5395099999999999</v>
+      </c>
+      <c r="G7">
+        <v>3.9276500000000004E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>45</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>3.1334200000000001</v>
+      </c>
+      <c r="G8">
+        <v>2.2341100000000001E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>43.02</v>
+      </c>
+      <c r="C9">
+        <v>0.19899700000000001</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>2.4227400000000001</v>
+      </c>
+      <c r="G9">
+        <v>4.77978E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>45</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>2.7916300000000001</v>
+      </c>
+      <c r="G10">
+        <v>3.19251E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>44.98</v>
+      </c>
+      <c r="C11">
+        <v>0.19899700000000001</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>2.6731099999999999</v>
+      </c>
+      <c r="G11">
+        <v>5.4681399999999998E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>45</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12">
+        <v>3.5204</v>
+      </c>
+      <c r="G12">
+        <v>3.3844000000000001E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>44</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>2.2814000000000001</v>
+      </c>
+      <c r="G13">
+        <v>8.18143E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>45</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14">
+        <v>3.1783000000000001</v>
+      </c>
+      <c r="G14">
+        <v>1.63504E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>44</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15">
+        <v>2.05403</v>
+      </c>
+      <c r="G15">
+        <v>3.52183E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>45</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16">
+        <v>2.3715899999999999</v>
+      </c>
+      <c r="G16">
+        <v>2.1098100000000002E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>44</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17">
+        <v>2.2496100000000001</v>
+      </c>
+      <c r="G17">
+        <v>2.2037099999999998E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>45</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18">
+        <v>3.7070099999999999</v>
+      </c>
+      <c r="G18">
+        <v>3.4782400000000001E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>44.01</v>
+      </c>
+      <c r="C19">
+        <v>9.9498699999999995E-2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19">
+        <v>2.4590000000000001</v>
+      </c>
+      <c r="G19">
+        <v>2.53215E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>46.02</v>
+      </c>
+      <c r="C20">
+        <v>0.19899700000000001</v>
+      </c>
+      <c r="E20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20">
+        <v>2.6216200000000001</v>
+      </c>
+      <c r="G20">
+        <v>2.4947199999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>44</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21">
+        <v>2.4899</v>
+      </c>
+      <c r="G21">
+        <v>3.0401299999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>44.99</v>
+      </c>
+      <c r="C22">
+        <v>9.9498699999999995E-2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22">
+        <v>2.5992500000000001</v>
+      </c>
+      <c r="G22">
+        <v>1.7136100000000001E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>43</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23">
+        <v>2.4356399999999998</v>
+      </c>
+      <c r="G23">
+        <v>2.5360500000000001E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>45.99</v>
+      </c>
+      <c r="C24">
+        <v>9.9498699999999995E-2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24">
+        <v>2.4922399999999998</v>
+      </c>
+      <c r="G24">
+        <v>3.0875799999999998E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>45.97</v>
+      </c>
+      <c r="C25">
+        <v>0.29849599999999998</v>
+      </c>
+      <c r="E25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25">
+        <v>2.0973999999999999</v>
+      </c>
+      <c r="G25">
+        <v>7.7549999999999997E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>46.99</v>
+      </c>
+      <c r="C26">
+        <v>9.9498699999999995E-2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26">
+        <v>2.3479000000000001</v>
+      </c>
+      <c r="G26">
+        <v>1.1294200000000001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>44.01</v>
+      </c>
+      <c r="C27">
+        <v>9.9498699999999995E-2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27">
+        <v>2.03024</v>
+      </c>
+      <c r="G27">
+        <v>6.6059300000000003E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>46</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28">
+        <v>2.3634499999999998</v>
+      </c>
+      <c r="G28">
+        <v>7.3217300000000003E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>43.99</v>
+      </c>
+      <c r="C29">
+        <v>9.9498699999999995E-2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29">
+        <v>2.0356900000000002</v>
+      </c>
+      <c r="G29">
+        <v>2.8091600000000002E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>46</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30">
+        <v>2.2826300000000002</v>
+      </c>
+      <c r="G30">
+        <v>3.83286E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>44</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31">
+        <v>2.4035299999999999</v>
+      </c>
+      <c r="G31">
+        <v>1.40964E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>45.02</v>
+      </c>
+      <c r="C32">
+        <v>0.19899700000000001</v>
+      </c>
+      <c r="E32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32">
+        <v>3.4489100000000001</v>
+      </c>
+      <c r="G32">
+        <v>3.6306699999999999E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>44.98</v>
+      </c>
+      <c r="C33">
+        <v>0.19899700000000001</v>
+      </c>
+      <c r="E33" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33">
+        <v>2.6481599999999998</v>
+      </c>
+      <c r="G33">
+        <v>8.1528699999999996E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>44.98</v>
+      </c>
+      <c r="C34">
+        <v>0.19899700000000001</v>
+      </c>
+      <c r="E34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34">
+        <v>3.55491</v>
+      </c>
+      <c r="G34">
+        <v>1.3866E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>43.98</v>
+      </c>
+      <c r="C35">
+        <v>0.19899700000000001</v>
+      </c>
+      <c r="E35" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35">
+        <v>2.35636</v>
+      </c>
+      <c r="G35">
+        <v>7.76255E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>44.99</v>
+      </c>
+      <c r="C36">
+        <v>9.9498699999999995E-2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36">
+        <v>3.5671599999999999</v>
+      </c>
+      <c r="G36">
+        <v>2.4759600000000001E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="62.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>39.03</v>
+      </c>
+      <c r="C1">
+        <v>0.29849599999999998</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>39.03</v>
+      </c>
+      <c r="G1">
+        <v>0.29849599999999998</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>47.01</v>
+      </c>
+      <c r="C2">
+        <v>9.9498699999999995E-2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>47.01</v>
+      </c>
+      <c r="G2">
+        <v>9.9498699999999995E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>39.03</v>
+      </c>
+      <c r="C3">
+        <v>0.29849599999999998</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>39.03</v>
+      </c>
+      <c r="G3">
+        <v>0.29849599999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>47.01</v>
+      </c>
+      <c r="C4">
+        <v>9.9498699999999995E-2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>47.01</v>
+      </c>
+      <c r="G4">
+        <v>9.9498699999999995E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>39.03</v>
+      </c>
+      <c r="C5">
+        <v>0.29849599999999998</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>39.03</v>
+      </c>
+      <c r="G5">
+        <v>0.29849599999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>47.01</v>
+      </c>
+      <c r="C6">
+        <v>9.9498699999999995E-2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>47.01</v>
+      </c>
+      <c r="G6">
+        <v>9.9498699999999995E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>41</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>41</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>45</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>45</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>41</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>41</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>45</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>45</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>41</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>41</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>45</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12">
+        <v>45</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>43</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>43</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>45</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14">
+        <v>45</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>43</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15">
+        <v>43</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>45</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16">
+        <v>45</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>43</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17">
+        <v>43</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>45</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18">
+        <v>45</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>40.98</v>
+      </c>
+      <c r="C19">
+        <v>0.19899700000000001</v>
+      </c>
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19">
+        <v>40.98</v>
+      </c>
+      <c r="G19">
+        <v>0.19899700000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>46.02</v>
+      </c>
+      <c r="C20">
+        <v>0.19899700000000001</v>
+      </c>
+      <c r="E20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20">
+        <v>46.02</v>
+      </c>
+      <c r="G20">
+        <v>0.19899700000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>39.03</v>
+      </c>
+      <c r="C21">
+        <v>0.29849599999999998</v>
+      </c>
+      <c r="E21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21">
+        <v>39.03</v>
+      </c>
+      <c r="G21">
+        <v>0.29849599999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>44.99</v>
+      </c>
+      <c r="C22">
+        <v>9.9498699999999995E-2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22">
+        <v>44.99</v>
+      </c>
+      <c r="G22">
+        <v>9.9498699999999995E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>42</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23">
+        <v>42</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>45.99</v>
+      </c>
+      <c r="C24">
+        <v>9.9498699999999995E-2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24">
+        <v>45.99</v>
+      </c>
+      <c r="G24">
+        <v>9.9498699999999995E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>40</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25">
+        <v>40</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>46.99</v>
+      </c>
+      <c r="C26">
+        <v>9.9498699999999995E-2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26">
+        <v>46.99</v>
+      </c>
+      <c r="G26">
+        <v>9.9498699999999995E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>40.01</v>
+      </c>
+      <c r="C27">
+        <v>9.9498699999999995E-2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27">
+        <v>40.01</v>
+      </c>
+      <c r="G27">
+        <v>9.9498699999999995E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>46</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28">
+        <v>46</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>41</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29">
+        <v>41</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>46</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30">
+        <v>46</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>38.979999999999997</v>
+      </c>
+      <c r="C31">
+        <v>0.19899700000000001</v>
+      </c>
+      <c r="E31" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31">
+        <v>38.979999999999997</v>
+      </c>
+      <c r="G31">
+        <v>0.19899700000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>45.02</v>
+      </c>
+      <c r="C32">
+        <v>0.19899700000000001</v>
+      </c>
+      <c r="E32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32">
+        <v>45.02</v>
+      </c>
+      <c r="G32">
+        <v>0.19899700000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>40.01</v>
+      </c>
+      <c r="C33">
+        <v>9.9498699999999995E-2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33">
+        <v>40.01</v>
+      </c>
+      <c r="G33">
+        <v>9.9498699999999995E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>44.98</v>
+      </c>
+      <c r="C34">
+        <v>0.19899700000000001</v>
+      </c>
+      <c r="E34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34">
+        <v>44.98</v>
+      </c>
+      <c r="G34">
+        <v>0.19899700000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>39.01</v>
+      </c>
+      <c r="C35">
+        <v>9.9498699999999995E-2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35">
+        <v>39.01</v>
+      </c>
+      <c r="G35">
+        <v>9.9498699999999995E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>44.99</v>
+      </c>
+      <c r="C36">
+        <v>9.9498699999999995E-2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36">
+        <v>44.99</v>
+      </c>
+      <c r="G36">
+        <v>9.9498699999999995E-2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>